--- a/template.xlsx
+++ b/template.xlsx
@@ -8,11 +8,15 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="temp" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Invoice_e" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Invoice_x" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Invoice_a" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Invoice_b" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Invoice_c" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="temp" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Invoice!$A$1:$E$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Invoice_e!$A$1:$E$29</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,9 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">SELLER</t>
@@ -82,7 +89,7 @@
     <numFmt numFmtId="167" formatCode="0.000%"/>
     <numFmt numFmtId="168" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -132,14 +139,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="26"/>
-      <color rgb="FF2E75B6"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -159,6 +158,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -200,6 +204,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="40"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="26"/>
+      <color rgb="FF2E75B6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -233,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -277,7 +296,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="thin">
+        <color rgb="FF2E75B6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right/>
       <top style="hair"/>
       <bottom style="thin">
@@ -288,14 +316,12 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="thin">
-        <color rgb="FF2E75B6"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left/>
       <right/>
       <top style="hair"/>
       <bottom style="thin">
@@ -333,7 +359,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,171 +376,207 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,13 +670,13 @@
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.54"/>
@@ -628,8 +690,8 @@
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
       <c r="H1" s="0"/>
@@ -641,11 +703,11 @@
       <c r="N1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0" t="s">
         <v>0</v>
@@ -659,11 +721,11 @@
       <c r="N2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
       <c r="H3" s="0"/>
@@ -675,11 +737,11 @@
       <c r="N3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
       <c r="H4" s="0"/>
@@ -691,11 +753,11 @@
       <c r="N4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
       <c r="H5" s="0"/>
@@ -707,12 +769,12 @@
       <c r="N5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
@@ -723,12 +785,12 @@
       <c r="N6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
@@ -739,11 +801,11 @@
       <c r="N7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -755,10 +817,10 @@
       <c r="N8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="G9" s="0"/>
@@ -771,10 +833,10 @@
       <c r="N9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -787,10 +849,10 @@
       <c r="N10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -803,11 +865,11 @@
       <c r="N11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
@@ -819,11 +881,11 @@
       <c r="N12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
@@ -835,11 +897,11 @@
       <c r="N13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
@@ -851,11 +913,11 @@
       <c r="N14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
@@ -867,11 +929,11 @@
       <c r="N15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
@@ -883,11 +945,11 @@
       <c r="N16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
       <c r="H17" s="0"/>
@@ -899,11 +961,11 @@
       <c r="N17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
@@ -915,11 +977,11 @@
       <c r="N18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
@@ -931,11 +993,11 @@
       <c r="N19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="0"/>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
@@ -947,11 +1009,11 @@
       <c r="N20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
@@ -963,11 +1025,11 @@
       <c r="N21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
@@ -978,12 +1040,12 @@
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
     </row>
-    <row r="23" s="35" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="34"/>
+    <row r="23" s="34" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="0"/>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
@@ -998,11 +1060,11 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
@@ -1014,11 +1076,11 @@
       <c r="N24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
@@ -1030,11 +1092,11 @@
       <c r="N25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -1046,11 +1108,11 @@
       <c r="N26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="0"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -1062,11 +1124,11 @@
       <c r="N27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
@@ -1204,11 +1266,11 @@
       <c r="N39" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="43"/>
+      <c r="A41" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D1:E1"/>
+  <mergeCells count="16">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
@@ -1217,6 +1279,7 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -1224,12 +1287,6 @@
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:E28"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1" type="list">
-      <formula1>"INVOICE,RECEIPT"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1245,238 +1302,543 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="25.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="21.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="43" width="10.47"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="48.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="44"/>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D1" type="list">
+      <formula1>"INVOICE,RECEIPT"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
+      <c r="A1" s="53"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>9</v>
       </c>
+      <c r="E14" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32" t="n">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30" t="n">
         <f aca="false">SUM(E15:E21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="33"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="34" t="n">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32" t="n">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30" t="n">
         <f aca="false">E22*E23</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="33"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="47" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="38" t="n">
+      <c r="D25" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="37" t="n">
         <f aca="false">E22+E24</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="14">
